--- a/data/value_box.xlsx
+++ b/data/value_box.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2055</v>
+        <v>4459</v>
       </c>
     </row>
     <row r="3">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>51</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/data/value_box.xlsx
+++ b/data/value_box.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4459</v>
+        <v>11927</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>85</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data/value_box.xlsx
+++ b/data/value_box.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11927</v>
+        <v>14223</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/data/value_box.xlsx
+++ b/data/value_box.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14223</v>
+        <v>16039</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>159</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6">

--- a/data/value_box.xlsx
+++ b/data/value_box.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16039</v>
+        <v>16717</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/data/value_box.xlsx
+++ b/data/value_box.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16717</v>
+        <v>18890</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>172</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/value_box.xlsx
+++ b/data/value_box.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18890</v>
+        <v>20889</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>183</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
